--- a/Resources/1991/Basic_Percentile_1991.xlsx
+++ b/Resources/1991/Basic_Percentile_1991.xlsx
@@ -1216,40 +1216,40 @@
     <t>harrito01</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
-  </si>
-  <si>
-    <t>Larry Bird*</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
+  </si>
+  <si>
+    <t>Larry Bird</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Lionel Simmons</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
-  </si>
-  <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Chris Mullin*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
+    <t>Dominique Wilkins</t>
+  </si>
+  <si>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Chris Mullin</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Roy Tarpley</t>
@@ -1288,7 +1288,7 @@
     <t>Hersey Hawkins</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Danny Manning</t>
@@ -1303,7 +1303,7 @@
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Magic Johnson*</t>
+    <t>Magic Johnson</t>
   </si>
   <si>
     <t>Horace Grant</t>
@@ -1330,7 +1330,7 @@
     <t>Brian Shaw</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Michael Adams</t>
@@ -1342,7 +1342,7 @@
     <t>Antoine Carr</t>
   </si>
   <si>
-    <t>Bernard King*</t>
+    <t>Bernard King</t>
   </si>
   <si>
     <t>Wayman Tisdale</t>
@@ -1363,7 +1363,7 @@
     <t>Dan Majerle</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Xavier McDaniel</t>
@@ -1393,13 +1393,13 @@
     <t>Pooh Richardson</t>
   </si>
   <si>
-    <t>Kevin McHale*</t>
+    <t>Kevin McHale</t>
   </si>
   <si>
     <t>Terry Cummings</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Grant Long</t>
@@ -1420,7 +1420,7 @@
     <t>Fat Lever</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Detlef Schrempf</t>
@@ -1444,7 +1444,7 @@
     <t>Nick Anderson</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Otis Smith</t>
@@ -1546,7 +1546,7 @@
     <t>Travis Mays</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Jay Humphries</t>
@@ -1555,7 +1555,7 @@
     <t>Chris Dudley</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Byron Scott</t>
@@ -1609,7 +1609,7 @@
     <t>Jon Koncak</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Nate McMillan</t>
@@ -1633,13 +1633,13 @@
     <t>Blue Edwards</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Vinnie Johnson</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>John Salley</t>
@@ -1783,7 +1783,7 @@
     <t>Joe Barry Carroll</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Anthony Bonner</t>
@@ -1798,7 +1798,7 @@
     <t>Mario Elie</t>
   </si>
   <si>
-    <t>Alex English*</t>
+    <t>Alex English</t>
   </si>
   <si>
     <t>Walter Davis</t>
@@ -1903,7 +1903,7 @@
     <t>Bob Hansen</t>
   </si>
   <si>
-    <t>Ralph Sampson*</t>
+    <t>Ralph Sampson</t>
   </si>
   <si>
     <t>Jack Haley</t>
@@ -1999,7 +1999,7 @@
     <t>Trent Tucker</t>
   </si>
   <si>
-    <t>Drazen Petrovic*</t>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Kurt Rambis</t>
@@ -2197,7 +2197,7 @@
     <t>Delaney Rudd</t>
   </si>
   <si>
-    <t>Adrian Dantley*</t>
+    <t>Adrian Dantley</t>
   </si>
   <si>
     <t>Tate George</t>
